--- a/visual/数据.xlsx
+++ b/visual/数据.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$63</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="149">
   <si>
     <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -532,6 +536,46 @@
   </si>
   <si>
     <t>即墨区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21~40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41~60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61~80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81~100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,10 +926,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -896,47 +941,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>37</v>
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2">
-        <v>1.29</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
         <v>2.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2.16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -944,151 +986,148 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>56</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>2.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
         <v>57</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>2.16</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>2.16</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2.11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
         <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2">
-        <v>2.14</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="2">
-        <v>2.8</v>
+        <v>2.14</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -1099,13 +1138,16 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2">
-        <v>2.23</v>
+        <v>2.8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1113,13 +1155,13 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2">
-        <v>2.7</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1127,168 +1169,165 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
         <v>42</v>
       </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
         <v>58</v>
       </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
         <v>7</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="2">
         <v>2.14</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.13</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C22">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
         <v>53</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="2">
         <v>2.15</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
         <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>36</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2">
         <v>2.15</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
         <v>59</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <v>2.23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>39</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2.15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
@@ -1296,47 +1335,50 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>125</v>
+      <c r="E27" s="2">
+        <v>2.15</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C28">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
         <v>70</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="2">
         <v>2.12</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>37</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2.19</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
@@ -1344,120 +1386,117 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E30" s="2">
-        <v>2.16</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
         <v>63</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="G31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>85</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
       </c>
+      <c r="E32" s="2">
+        <v>2.2400000000000002</v>
+      </c>
       <c r="G32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="2">
-        <v>2.2799999999999998</v>
-      </c>
       <c r="G33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="2">
-        <v>2.21</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="2">
-        <v>2.2599999999999998</v>
+        <v>2.21</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="2">
-        <v>3.1</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -1466,63 +1505,63 @@
         <v>3.1</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>124</v>
+      <c r="E38" s="2">
+        <v>3.1</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="2">
-        <v>2.13</v>
+      <c r="E39" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="2">
-        <v>2.2799999999999998</v>
+        <v>2.13</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>62</v>
@@ -1531,61 +1570,61 @@
         <v>11</v>
       </c>
       <c r="E41" s="2">
-        <v>2.2400000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E42" s="2">
-        <v>2.14</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E43" s="2">
         <v>2.14</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="2">
-        <v>3.1</v>
+        <v>2.14</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
@@ -1593,109 +1632,109 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="2">
-        <v>2.2799999999999998</v>
+        <v>3.1</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
         <v>32</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E48" s="2">
         <v>2.27</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48">
+    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
         <v>22</v>
-      </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="2">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="G48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49">
-        <v>55</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="2">
-        <v>2.27</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="2">
-        <v>2.29</v>
+        <v>2.27</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>5</v>
       </c>
       <c r="C51">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
@@ -1704,128 +1743,125 @@
         <v>2.29</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="2">
-        <v>2.27</v>
+        <v>2.29</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C53">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
       </c>
+      <c r="E53" s="2">
+        <v>2.27</v>
+      </c>
       <c r="G53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="G54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C56">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
         <v>90</v>
-      </c>
-      <c r="D56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57">
-        <v>78</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="G57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
       </c>
+      <c r="E58" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="G58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C59">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="2">
-        <v>3.1</v>
-      </c>
       <c r="G59" t="s">
-        <v>34</v>
-      </c>
-      <c r="I59" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
@@ -1833,16 +1869,19 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>56</v>
+      <c r="E60" s="2">
+        <v>3.1</v>
       </c>
       <c r="G60" t="s">
-        <v>57</v>
+        <v>34</v>
+      </c>
+      <c r="I60" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
@@ -1850,24 +1889,48 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>11</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C62">
+        <v>54</v>
+      </c>
+      <c r="D62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
         <v>56</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J63">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="男"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3904,8 +3967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5815,4 +5878,356 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:O36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3">
+        <v>37</v>
+      </c>
+      <c r="O3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>34</v>
+      </c>
+      <c r="N4">
+        <v>41</v>
+      </c>
+      <c r="O4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" t="s">
+        <v>147</v>
+      </c>
+      <c r="M5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N5">
+        <v>66</v>
+      </c>
+      <c r="O5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <f>COUNTIF(N3:N30,"&lt;=20")</f>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f>COUNTIF(N3:N30,"&lt;=40")-D6</f>
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIF(N3:N30,"&lt;=60")-D6-E6</f>
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <f>COUNTIF(N3:N30,"&lt;=80")-D6-E6-F6</f>
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <f>COUNTIF(N3:N30,"&lt;=100")-D6-E6-F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIF(O3:O36,"&lt;=20")</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(O3:O36,"&lt;=40")-I6</f>
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <f>COUNTIF(O3:O36,"&lt;=60")-I6-J6</f>
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <f>COUNTIF(O3:O36,"&lt;=80")-I6-J6-K6</f>
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <f>COUNTIF(O3:O36,"&lt;=100")-I6-J6-K6-L6</f>
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>24</v>
+      </c>
+      <c r="O6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="N7">
+        <v>46</v>
+      </c>
+      <c r="O7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="N8">
+        <v>54</v>
+      </c>
+      <c r="O8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="N9">
+        <v>53</v>
+      </c>
+      <c r="O9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="N10">
+        <v>32</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="N11">
+        <v>35</v>
+      </c>
+      <c r="O11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="N12">
+        <v>47</v>
+      </c>
+      <c r="O12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="N13">
+        <v>31</v>
+      </c>
+      <c r="O13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="N14">
+        <v>40</v>
+      </c>
+      <c r="O14">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="N15">
+        <v>35</v>
+      </c>
+      <c r="O15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="N16">
+        <v>39</v>
+      </c>
+      <c r="O16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N17">
+        <v>28</v>
+      </c>
+      <c r="O17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N18">
+        <v>37</v>
+      </c>
+      <c r="O18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N19">
+        <v>20</v>
+      </c>
+      <c r="O19">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N22">
+        <v>62</v>
+      </c>
+      <c r="O22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N23">
+        <v>51</v>
+      </c>
+      <c r="O23">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N24">
+        <v>48</v>
+      </c>
+      <c r="O24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N25">
+        <v>59</v>
+      </c>
+      <c r="O25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N26">
+        <v>31</v>
+      </c>
+      <c r="O26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N27">
+        <v>33</v>
+      </c>
+      <c r="O27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N28">
+        <v>38</v>
+      </c>
+      <c r="O28">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N29">
+        <v>79</v>
+      </c>
+      <c r="O29">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N30">
+        <v>54</v>
+      </c>
+      <c r="O30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="O31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="O32">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O34">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O36">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>